--- a/ESP32_S3_MINI_1U/BOM.xlsx
+++ b/ESP32_S3_MINI_1U/BOM.xlsx
@@ -665,7 +665,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -731,12 +731,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -848,7 +842,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -866,51 +860,6 @@
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
     <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFBFBFBF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0563C1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -982,24 +931,24 @@
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D:D"/>
+      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="33.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="26.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="26.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="6.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="10.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="23.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="23.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="8.61"/>
   </cols>
   <sheetData>
@@ -2189,7 +2138,7 @@
     <hyperlink ref="N11" r:id="rId14" display="https://www.mouser.com/ProductDetail/Texas-Instruments/TPS6282533DMQR?qs=e8oIoAS2J1TctVdod4W0lA%3D%3D"/>
     <hyperlink ref="J13" r:id="rId15" display="https://www.lcsc.com/product-detail/C3445864.html?s_z=n_C3445864"/>
     <hyperlink ref="N13" r:id="rId16" display="https://www.mouser.com/ProductDetail/GCT/USB4120-03-C?qs=KUoIvG%2F9IlZaAd13sVDhkQ%3D%3D"/>
-    <hyperlink ref="J14" r:id="rId17" display="https://www"/>
+    <hyperlink ref="J14" r:id="rId17" display="https://www.lcsc.com/product-detail/C970137.html?s_z=n_C970137"/>
     <hyperlink ref="J18" r:id="rId18" display="https://www.lcsc.com/product-detail/C695609.html?s_z=n_C695609"/>
     <hyperlink ref="N18" r:id="rId19" display="https://www.mouser.com/ProductDetail/TDK/TFM160808ALC-R47MTAA?qs=3SnDZBG9J%252B6tokb499UWsQ%3D%3D"/>
     <hyperlink ref="J19" r:id="rId20" display="https://www.lcsc.com/product-detail/C60491.html?s_z=n_C60491"/>
